--- a/visuals_rfe_f1.xlsx
+++ b/visuals_rfe_f1.xlsx
@@ -1,60 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\ids_svm_slidingwindow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mountrouidoux/Documents/GitHub/ids_svm_slidingwindow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02673B5-405B-4595-B315-89358EE94F62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF37B6-FF05-2F48-A935-89038066EB52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2040" windowWidth="18165" windowHeight="15090" xr2:uid="{0B7B084F-755E-4BB5-B8D1-4B8AB2260004}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="25260" windowHeight="16080" activeTab="1" xr2:uid="{0B7B084F-755E-4BB5-B8D1-4B8AB2260004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>PROBE CV1</t>
+    <t>DOS</t>
   </si>
   <si>
-    <t>DOS CV1</t>
+    <t>PROBE</t>
   </si>
   <si>
-    <t>R2L CV1</t>
+    <t>R2L</t>
   </si>
   <si>
-    <t>U2R CV1</t>
-  </si>
-  <si>
-    <t>DOS CV2</t>
-  </si>
-  <si>
-    <t>PROBE CV2</t>
-  </si>
-  <si>
-    <t>R2L CV2</t>
-  </si>
-  <si>
-    <t>U2R CV2</t>
+    <t>U2R</t>
   </si>
 </sst>
 </file>
@@ -193,7 +176,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DOS CV1</c:v>
+                  <c:v>DOS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -502,7 +485,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PROBE CV1</c:v>
+                  <c:v>PROBE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -811,7 +794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R2L CV1</c:v>
+                  <c:v>R2L</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1120,7 +1103,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>U2R CV1</c:v>
+                  <c:v>U2R</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1817,7 +1800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DOS CV2</c:v>
+                  <c:v>DOS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2117,7 +2100,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PROBE CV2</c:v>
+                  <c:v>PROBE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2417,7 +2400,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R2L CV2</c:v>
+                  <c:v>R2L</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2726,7 +2709,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>U2R CV2</c:v>
+                  <c:v>U2R</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3335,6 +3318,3178 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68785547005687497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71811865312667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72771698714543698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73084112149532698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73048385411223704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73667776852622802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73844559585492198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.748307820472768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.745377543642185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74539134098809601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74537902388369603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74441687344913099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74330056906363096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74361380460848703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74425822470515202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.739234699197164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74115653463249298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73754990544231902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74023519529609405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74173146708138904</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73881764153894203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73506248031082599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74015096680798198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73338870431893599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73524487233151903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73600502249659905</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73650531530601704</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.73879122022261501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73289500719128797</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.733264033264033</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73479571681047895</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73244978256367699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.72361600663487402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.70122783083219598</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68280362029046504</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66421130169420095</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64991408934707895</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.50844576649314699</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45738912831919898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53900301680792995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFAD-634A-97AB-B568574F7FCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PROBE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.37696840884938598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.383900335409678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39650588682111598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40353728489483698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40425633897330199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40469264151843198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40748678382626002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41043528118878098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41024171204738702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41378652810220701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41030305931919298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40890362301681199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40690048474479601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40880293431143699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.407358113889152</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40953690098118201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41034171379687201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40687624655712701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.407072951633492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.40769887171707597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40774303743416901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.40809924426065802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.40534416013596403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41053181882990297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.40712250712250703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40328941040684801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.403600827997881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.401012803363271</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.403782460519368</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40055012804704498</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.39244917715392003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.387563268257411</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.394420394420394</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.39804462513915101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39843239712606099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.40951302378255899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.45382216281586102</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.49297431992801199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48426812585499301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41783362349557102</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.33727002490559899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFAD-634A-97AB-B568574F7FCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.179326844652275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17967312479705499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.183027027027027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.181475074697279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.187333688131985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.187370983962314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18850844027903499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18916751323317099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19354838709677399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.194894585659313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19975998254418501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19846747459377201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.198933901918976</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19849946409431901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.197899272825208</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19872234834485999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.195934829910311</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19589682838834699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19461110505072499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19043977055449299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19384067741761499</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18531941364201801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1853926532371</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18561908856405801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18609841640982</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18504020313161201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19140750240461599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.18844952622942099</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18397594809852799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18303429238772601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18313458262350901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.181857288810023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18479581594378899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17972324824962699</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17450406144664801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.16836373536618501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17450912048332701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.177721549490933</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19840213049267599</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18270387298532501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.166999939404956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFAD-634A-97AB-B568574F7FCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>U2R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="98500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.172870540462148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17545665037303801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.173631567021655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.174026142940755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17640558986025301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17316488085718801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17518997082304599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17733572476765</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17833167378665701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17760123013838999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17787195787581001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17529777317452</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.179638402784491</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17743130496408199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17592923807355801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17816780544671401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17428767257416999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17125402138238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17152480891307101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17476425098704601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17108261180912601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17258717513386401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.171796049609554</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17228342350563799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17538562520511899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.171854968607212</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.17205945927970401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.177700576822233</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.172809628151878</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.174508519003931</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17111867147236101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16874541452677899</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.173930494698464</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17388107096299699</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.176455130731835</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.181903047276121</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.175917621657531</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.173071124660792</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.17687896166616299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18357197690330701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.184197600168409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DFAD-634A-97AB-B568574F7FCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="588615800"/>
+        <c:axId val="588613832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="588615800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588613832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588613832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>F1 Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588615800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="3">
+                  <c:v>0.53694707236001005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53873417721518901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.544287548138639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54729729729729704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55865065167390704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55705897370436497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.563957959497564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56100051046452204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55533299949924797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57003341043433498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57942006671798796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56847545219638196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.563508064516129</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56631196470282896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57440708887151404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56749872643912302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56511805026656503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56833419288292897</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.579439252336448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56211812627291202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57231404958677601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56917999492256899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.57200100175306701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57935684647302899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57668393782383398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.57415036045314105</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56157383750638701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.57034027425088796</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.57075595082396002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56445461479786396</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55798405759835401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.54740701938187497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52988855116514599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50965447154471499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51242728714965602</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37089084065244599</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32756458490092799</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41645615301335198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-580C-2944-87B4-0EF6747175B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PROBE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="3">
+                  <c:v>0.186316237497339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.188647658906617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19686322436093201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19527298998864601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20031425819859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19901156570031001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.202368797222789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20610259283785801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.203343465045592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20127618951916701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19987712471840999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19818995322350999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.200679754476741</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20464325027519201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.201112797167425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20197960106516599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20273531777956499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.202864924846161</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20400765280434999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.200244076070375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19875713121434299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20492008617666199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.19975565058032899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.196744232497752</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20419856754754201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.19592366869817099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19709127382146399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.195196262631391</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19034907597535899</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.183199102864716</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18070412296188501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.169842757471623</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17531361313303301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.186087959322744</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.184309215460773</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.17169179229480699</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14492019255130401</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8976614031581001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-580C-2944-87B4-0EF6747175B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.26018374068296002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25695931477515999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26233678141427802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.267863367026838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27776309995596599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27609902211258902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.282664769189718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27877169559412501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28002478095406602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27859729705856301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.278164361842684</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27515364354697103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27817703768624003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27703056768558898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28045527298595002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27981651376146699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27511835875854801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28181736067202601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28615412478493102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27406113537117899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27671620665251201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27754237288135503</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27802530743183002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27527427690633699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.277114870881567</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27519517388218501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27774277742777398</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28581636298678098</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27842928216062501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27746691535660301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28330821735661699</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27752193935181102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.267139275525201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27163524769837699</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28374436488994897</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27158289438442901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.236688453159041</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.26487036095576999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19319562575941601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.128167462357693</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.5262428203604599E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-580C-2944-87B4-0EF6747175B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>U2R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="98500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="3">
+                  <c:v>0.32324734802520799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.333151283451665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33638569304218502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33803816432739298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34608364723700002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.350690258603927</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35586504058785001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.359128590707538</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36096958468426699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36393796774940201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36090567755148401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36566315310533098</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36766988453530097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36633625764308198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36704662422324702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36764425460508698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36908360436196602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36446591519055199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36354612095296202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.37182885270730698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36923193974207702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36826760779499701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.367237891683523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.37095349640950798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35902168897092701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36750453685470402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.359117089953225</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.352275829790553</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34980453479280599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.34508538600771199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.342022613065326</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32639136816216402</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32548095798979099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.321143537820131</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33840304182509501</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34046724391439298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31126539383420099</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.29751302302133997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-580C-2944-87B4-0EF6747175B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="595289464"/>
+        <c:axId val="595289792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="595289464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595289792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595289792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>F1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595289464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3415,6 +6570,60 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3919,6 +7128,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4482,6 +8697,87 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33869</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140549</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77895</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382EDF5D-7CFD-2446-847E-B367CDB5928E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25402</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132082</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128694</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B80EDAF-A305-2648-B4FD-D38FA75192FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4797,24 +9093,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7C7A41-A8DC-42B4-862C-49C29CFFD596}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4823,19 +9119,19 @@
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.66666666666666596</v>
       </c>
@@ -4855,7 +9151,7 @@
         <v>0.26018374068296002</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.68785547005687497</v>
       </c>
@@ -4875,7 +9171,7 @@
         <v>0.25695931477515999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.71811865312667</v>
       </c>
@@ -4895,7 +9191,7 @@
         <v>0.26233678141427802</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.72771698714543698</v>
       </c>
@@ -4924,7 +9220,7 @@
         <v>0.32324734802520799</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.73084112149532698</v>
       </c>
@@ -4953,7 +9249,7 @@
         <v>0.333151283451665</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.73048385411223704</v>
       </c>
@@ -4982,7 +9278,7 @@
         <v>0.33638569304218502</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.73667776852622802</v>
       </c>
@@ -5011,7 +9307,7 @@
         <v>0.33803816432739298</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.73844559585492198</v>
       </c>
@@ -5040,7 +9336,7 @@
         <v>0.34608364723700002</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.748307820472768</v>
       </c>
@@ -5069,7 +9365,7 @@
         <v>0.350690258603927</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.745377543642185</v>
       </c>
@@ -5098,7 +9394,7 @@
         <v>0.35586504058785001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.74539134098809601</v>
       </c>
@@ -5127,7 +9423,7 @@
         <v>0.359128590707538</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.74537902388369603</v>
       </c>
@@ -5156,7 +9452,7 @@
         <v>0.36096958468426699</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.74441687344913099</v>
       </c>
@@ -5185,7 +9481,7 @@
         <v>0.36393796774940201</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.74330056906363096</v>
       </c>
@@ -5214,7 +9510,7 @@
         <v>0.36090567755148401</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.74361380460848703</v>
       </c>
@@ -5243,7 +9539,7 @@
         <v>0.36566315310533098</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.74425822470515202</v>
       </c>
@@ -5272,7 +9568,7 @@
         <v>0.36766988453530097</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.739234699197164</v>
       </c>
@@ -5301,7 +9597,7 @@
         <v>0.36633625764308198</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.74115653463249298</v>
       </c>
@@ -5330,7 +9626,7 @@
         <v>0.36704662422324702</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.73754990544231902</v>
       </c>
@@ -5359,7 +9655,7 @@
         <v>0.36764425460508698</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.74023519529609405</v>
       </c>
@@ -5388,7 +9684,7 @@
         <v>0.36908360436196602</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.74173146708138904</v>
       </c>
@@ -5417,7 +9713,7 @@
         <v>0.36446591519055199</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.73881764153894203</v>
       </c>
@@ -5446,7 +9742,7 @@
         <v>0.36354612095296202</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.73506248031082599</v>
       </c>
@@ -5475,7 +9771,7 @@
         <v>0.37182885270730698</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.74015096680798198</v>
       </c>
@@ -5504,7 +9800,7 @@
         <v>0.36923193974207702</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.73338870431893599</v>
       </c>
@@ -5533,7 +9829,7 @@
         <v>0.36826760779499701</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.73524487233151903</v>
       </c>
@@ -5562,7 +9858,7 @@
         <v>0.367237891683523</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.73600502249659905</v>
       </c>
@@ -5591,7 +9887,7 @@
         <v>0.37095349640950798</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.73650531530601704</v>
       </c>
@@ -5620,7 +9916,7 @@
         <v>0.35902168897092701</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.73879122022261501</v>
       </c>
@@ -5649,7 +9945,7 @@
         <v>0.36750453685470402</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.73289500719128797</v>
       </c>
@@ -5678,7 +9974,7 @@
         <v>0.359117089953225</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.733264033264033</v>
       </c>
@@ -5707,7 +10003,7 @@
         <v>0.352275829790553</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.73479571681047895</v>
       </c>
@@ -5736,7 +10032,7 @@
         <v>0.34980453479280599</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.73244978256367699</v>
       </c>
@@ -5765,7 +10061,7 @@
         <v>0.34508538600771199</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.72361600663487402</v>
       </c>
@@ -5794,7 +10090,7 @@
         <v>0.342022613065326</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.70122783083219598</v>
       </c>
@@ -5823,7 +10119,7 @@
         <v>0.32639136816216402</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.68280362029046504</v>
       </c>
@@ -5852,7 +10148,7 @@
         <v>0.32548095798979099</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.66421130169420095</v>
       </c>
@@ -5881,7 +10177,7 @@
         <v>0.321143537820131</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.64991408934707895</v>
       </c>
@@ -5910,7 +10206,7 @@
         <v>0.33840304182509501</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.50844576649314699</v>
       </c>
@@ -5939,7 +10235,7 @@
         <v>0.34046724391439298</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.45738912831919898</v>
       </c>
@@ -5968,7 +10264,7 @@
         <v>0.31126539383420099</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.53900301680792995</v>
       </c>
@@ -6001,4 +10297,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98CC971-D94C-E648-850D-62618AC90944}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/visuals_rfe_f1.xlsx
+++ b/visuals_rfe_f1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mountrouidoux/Documents/GitHub/ids_svm_slidingwindow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF37B6-FF05-2F48-A935-89038066EB52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28045C70-863E-1F41-B61A-B16E024CE972}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="25260" windowHeight="16080" activeTab="1" xr2:uid="{0B7B084F-755E-4BB5-B8D1-4B8AB2260004}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25260" windowHeight="16080" activeTab="1" xr2:uid="{0B7B084F-755E-4BB5-B8D1-4B8AB2260004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3666,28 +3666,22 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="55000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3981,8 +3975,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3990,18 +3985,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -4670,17 +4667,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4720,20 +4714,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4794,13 +4774,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4883,12 +4865,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5250,28 +5227,22 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="55000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5565,7 +5536,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -6236,17 +6207,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -6286,20 +6254,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6373,13 +6327,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6409,7 +6365,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -6462,12 +6418,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -10303,8 +10254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98CC971-D94C-E648-850D-62618AC90944}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
